--- a/hours.xlsx
+++ b/hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewpcsdk12ny-my.sharepoint.com/personal/bg502257_live_wpcsd_k12_ny_us/Documents/science-research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{F1C0626D-80E2-AB45-BC0F-9068B932607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D41614-4D38-A64E-BCFE-DA64C4E42713}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC548C4-FEC9-B742-BA0F-5ED2DA2BC6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>compiled biweekly</t>
+  </si>
+  <si>
+    <t>worked on JSHS form</t>
+  </si>
+  <si>
+    <t>presentation lesson</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1133,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D40" si="7">C36-B36</f>
+        <f t="shared" ref="D36:D42" si="7">C36-B36</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E36" t="s">
@@ -1204,6 +1210,60 @@
       </c>
       <c r="E40" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43" si="8">C43-B43</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC548C4-FEC9-B742-BA0F-5ED2DA2BC6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B445BE57-5B02-3B40-BD41-3148BF26CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>presentation lesson</t>
+  </si>
+  <si>
+    <t>worked on jshs form</t>
+  </si>
+  <si>
+    <t>presented</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1272,60 @@
         <v>31</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44" si="9">C44-B44</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45" si="10">C45-B45</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46" si="11">C46-B46</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B445BE57-5B02-3B40-BD41-3148BF26CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBD3FC-4E92-2145-AA60-22D255D4808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -136,16 +136,38 @@
   </si>
   <si>
     <t>presented</t>
+  </si>
+  <si>
+    <t>marcus's presentation</t>
+  </si>
+  <si>
+    <t>Jimena's presentation</t>
+  </si>
+  <si>
+    <t>Sarah's presentation</t>
+  </si>
+  <si>
+    <t>Emailed mentor</t>
+  </si>
+  <si>
+    <t>worked on STS application, helped sean with STS application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,11 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,8 +538,8 @@
         <v>4</v>
       </c>
       <c r="J1" s="2">
-        <f>SUM(D24:D40)</f>
-        <v>0.70624999999999982</v>
+        <f>SUM(D41:D55)</f>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,11 +1342,119 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46" si="11">C46-B46</f>
+        <f t="shared" ref="D46:D52" si="11">C46-B46</f>
         <v>3.125E-2</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="11"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="11"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBD3FC-4E92-2145-AA60-22D255D4808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818D272-0852-8C4D-9252-CAC11C0BD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -147,10 +147,52 @@
     <t>Sarah's presentation</t>
   </si>
   <si>
-    <t>Emailed mentor</t>
-  </si>
-  <si>
     <t>worked on STS application, helped sean with STS application</t>
+  </si>
+  <si>
+    <t>Melissa's presentation</t>
+  </si>
+  <si>
+    <t>Emailed mentor, worked on presentation</t>
+  </si>
+  <si>
+    <t>worked on suny hus application</t>
+  </si>
+  <si>
+    <t>got new biweekly, worked on JSHS application</t>
+  </si>
+  <si>
+    <t>formatted paper for jshs</t>
+  </si>
+  <si>
+    <t>worked on wesef board</t>
+  </si>
+  <si>
+    <t>engineering presentations</t>
+  </si>
+  <si>
+    <t>JSHS application group</t>
+  </si>
+  <si>
+    <t>worked on jshs form (helped Antonia and Melissa to format their JSHS paper</t>
+  </si>
+  <si>
+    <t>worked on wesef form and board</t>
+  </si>
+  <si>
+    <t>submitted jshs forms and biweekly</t>
+  </si>
+  <si>
+    <t>Updated research plan, worked on wesef forms, worked on wesef board</t>
+  </si>
+  <si>
+    <t>worked on wesef paperwork</t>
+  </si>
+  <si>
+    <t>submitted wesef stuff</t>
+  </si>
+  <si>
+    <t>fixed wesef stuff, worked on presentation</t>
   </si>
 </sst>
 </file>
@@ -513,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,8 +580,8 @@
         <v>4</v>
       </c>
       <c r="J1" s="2">
-        <f>SUM(D41:D55)</f>
-        <v>0.4375</v>
+        <f>SUM(D56:D77)</f>
+        <v>0.71944444444444433</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1162,7 +1204,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D42" si="7">C36-B36</f>
+        <f t="shared" ref="D36:D43" si="7">C36-B36</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E36" t="s">
@@ -1279,25 +1321,25 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B43" s="2">
-        <v>0.3833333333333333</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C43" s="2">
-        <v>0.4145833333333333</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" ref="D43" si="8">C43-B43</f>
-        <v>3.125E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B44" s="2">
         <v>0.3833333333333333</v>
@@ -1306,16 +1348,16 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ref="D44" si="9">C44-B44</f>
+        <f t="shared" ref="D44" si="8">C44-B44</f>
         <v>3.125E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B45" s="2">
         <v>0.3833333333333333</v>
@@ -1324,16 +1366,16 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45" si="10">C45-B45</f>
+        <f t="shared" ref="D45" si="9">C45-B45</f>
         <v>3.125E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44501</v>
+        <v>44498</v>
       </c>
       <c r="B46" s="2">
         <v>0.3833333333333333</v>
@@ -1342,11 +1384,11 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46:D52" si="11">C46-B46</f>
+        <f t="shared" ref="D46" si="10">C46-B46</f>
         <v>3.125E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1354,58 +1396,58 @@
         <v>44501</v>
       </c>
       <c r="B47" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="C47" s="2">
-        <v>0.75</v>
+        <v>0.4145833333333333</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="11"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="D47:D54" si="11">C47-B47</f>
+        <v>3.125E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.4145833333333333</v>
+        <v>44501</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.77083333333333337</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="11"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.79166666666666663</v>
+        <v>44502</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.49236111111111108</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="11"/>
-        <v>3.125E-2</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B50" s="4">
         <v>0.3833333333333333</v>
@@ -1418,43 +1460,402 @@
         <v>3.125E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44505</v>
+        <v>44503</v>
       </c>
       <c r="B51" s="4">
-        <v>0.3833333333333333</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="C51" s="4">
-        <v>0.4145833333333333</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="11"/>
         <v>3.125E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44507</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.58333333333333337</v>
+        <v>44504</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.4145833333333333</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="11"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" ref="D55" si="12">C55-B55</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E55" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:D57" si="13">C56-B56</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:D59" si="14">C58-B58</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="14"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" ref="D60" si="15">C60-B60</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61:D65" si="16">C61-B61</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="16"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="16"/>
+        <v>7.3611111111111072E-2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66" si="17">C66-B66</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D68" si="18">C67-B67</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="18"/>
+        <v>0.125</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B69" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69" si="19">C69-B69</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70" si="20">C70-B70</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" ref="D71" si="21">C71-B71</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D72" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E818D272-0852-8C4D-9252-CAC11C0BD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A58EEA-3165-D048-A0A0-EAEBF0F50CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>fixed wesef stuff, worked on presentation</t>
+  </si>
+  <si>
+    <t>computer problems the whole period</t>
+  </si>
+  <si>
+    <t>dead words lesson</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +587,7 @@
       </c>
       <c r="J1" s="2">
         <f>SUM(D56:D77)</f>
-        <v>0.71944444444444433</v>
+        <v>0.78194444444444433</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1856,6 +1862,40 @@
       </c>
       <c r="E72" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D73" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A58EEA-3165-D048-A0A0-EAEBF0F50CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CB487-0432-A641-B00E-C778EB42295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,48 @@
   </si>
   <si>
     <t>dead words lesson</t>
+  </si>
+  <si>
+    <t>Filled out WESEF signatures</t>
+  </si>
+  <si>
+    <t>Worked on portfolio</t>
+  </si>
+  <si>
+    <t>Worked on presentation</t>
+  </si>
+  <si>
+    <t>Checked wesef forms</t>
+  </si>
+  <si>
+    <t>Wrote thank you letter to mentor</t>
+  </si>
+  <si>
+    <t>Practiced presentation</t>
+  </si>
+  <si>
+    <t>Watched Nadav's presentatino (feedback on schoology)</t>
+  </si>
+  <si>
+    <t>followed up mentor email, worked on board</t>
+  </si>
+  <si>
+    <t>compiled biweekly, sent paper to Julianna</t>
+  </si>
+  <si>
+    <t>Tried (couldn't) upload vaccine card</t>
+  </si>
+  <si>
+    <t>Worked on board</t>
+  </si>
+  <si>
+    <t>emailed mentor</t>
+  </si>
+  <si>
+    <t>Got new biweekly</t>
+  </si>
+  <si>
+    <t>Antonia's presentation</t>
   </si>
 </sst>
 </file>
@@ -561,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,8 +628,8 @@
         <v>4</v>
       </c>
       <c r="J1" s="2">
-        <f>SUM(D56:D77)</f>
-        <v>0.78194444444444433</v>
+        <f>SUM(D69:D90)</f>
+        <v>0.75277777777777766</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1840,7 +1882,7 @@
         <v>0.41458333333333303</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" ref="D71" si="21">C71-B71</f>
+        <f t="shared" ref="D71:D90" si="21">C71-B71</f>
         <v>3.125E-2</v>
       </c>
       <c r="E71" t="s">
@@ -1849,24 +1891,25 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B72" s="4">
-        <v>0.3833333333333333</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C72" s="4">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="D72" s="4">
-        <v>3.125E-2</v>
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="21"/>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B73" s="4">
         <v>0.3833333333333333</v>
@@ -1874,28 +1917,372 @@
       <c r="C73" s="4">
         <v>0.4145833333333333</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
+        <f t="shared" si="21"/>
         <v>3.125E-2</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>44546</v>
       </c>
-      <c r="B74" s="4">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="D74" s="4">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="B75" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E75" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.71805555555555556</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="21"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="21"/>
+        <v>4.9305555555555602E-2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="21"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="21"/>
+        <v>4.3749999999999956E-2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" ref="D91" si="22">C91-B91</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" ref="D92" si="23">C92-B92</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" ref="D93" si="24">C93-B93</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581CB487-0432-A641-B00E-C778EB42295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98158011-5AEA-2643-83AC-713BDE41331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -241,6 +241,84 @@
   </si>
   <si>
     <t>Antonia's presentation</t>
+  </si>
+  <si>
+    <t>Celia's presentation</t>
+  </si>
+  <si>
+    <t>practiced presentation with sean</t>
+  </si>
+  <si>
+    <t>fixed wesef stuff, listenned to Alyssa's presentation</t>
+  </si>
+  <si>
+    <t>Sean's presentation</t>
+  </si>
+  <si>
+    <t>worked on portfolio</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>worked on wesef forms</t>
+  </si>
+  <si>
+    <t>presentation feedback from Ms. Fleming</t>
+  </si>
+  <si>
+    <t>yelled at sean for his font choice</t>
+  </si>
+  <si>
+    <t>compiled biweekly, watched and feedback to presentation</t>
+  </si>
+  <si>
+    <t>proofread my paper</t>
+  </si>
+  <si>
+    <t>Data lesson Got new biweekly</t>
+  </si>
+  <si>
+    <t>data collection activity</t>
+  </si>
+  <si>
+    <t>Excel activity</t>
+  </si>
+  <si>
+    <t>worked on brochure</t>
+  </si>
+  <si>
+    <t>Helped sean to find his OneDrive, worked on brochure</t>
+  </si>
+  <si>
+    <t>Watched and gave feedback on sophomore presentation</t>
+  </si>
+  <si>
+    <t>Drafted email to mentor</t>
+  </si>
+  <si>
+    <t>looked over abstract</t>
+  </si>
+  <si>
+    <t>Looked over paper</t>
+  </si>
+  <si>
+    <t>revised wesef presentation</t>
+  </si>
+  <si>
+    <t>compiled biweekly files</t>
+  </si>
+  <si>
+    <t>Wesef information lesson</t>
+  </si>
+  <si>
+    <t>practiced presentation with sean, listened and gave feedback to his presentation</t>
+  </si>
+  <si>
+    <t>did brochure</t>
+  </si>
+  <si>
+    <t>reviewed powerpoint</t>
   </si>
 </sst>
 </file>
@@ -263,12 +341,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,12 +367,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,15 +691,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,12 +715,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2">
-        <f>SUM(D69:D90)</f>
-        <v>0.75277777777777766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44454</v>
       </c>
@@ -650,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44456</v>
       </c>
@@ -668,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44456</v>
       </c>
@@ -686,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44457</v>
       </c>
@@ -704,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44459</v>
       </c>
@@ -722,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44459</v>
       </c>
@@ -740,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44460</v>
       </c>
@@ -758,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44460</v>
       </c>
@@ -776,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44461</v>
       </c>
@@ -794,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44462</v>
       </c>
@@ -812,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44462</v>
       </c>
@@ -830,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44462</v>
       </c>
@@ -848,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44463</v>
       </c>
@@ -866,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44465</v>
       </c>
@@ -884,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44465</v>
       </c>
@@ -2283,6 +2367,622 @@
       </c>
       <c r="E93" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" ref="D94:D96" si="25">C94-B94</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="25"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.9375</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="25"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" ref="D97" si="26">C97-B97</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" ref="D98:D101" si="27">C98-B98</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="27"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" ref="D102" si="28">C102-B102</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" ref="D103:D106" si="29">C103-B103</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="29"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="29"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="29"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" ref="D107:D108" si="30">C107-B107</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="30"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" ref="D109" si="31">C109-B109</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" ref="D110:D111" si="32">C110-B110</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="32"/>
+        <v>4.9305555555555602E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>44601</v>
+      </c>
+      <c r="B112" s="6">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" ref="D112:D114" si="33">C112-B112</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="33"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="33"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" ref="D115" si="34">C115-B115</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" ref="D116:D123" si="35">C116-B116</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="35"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="35"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="35"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="35"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="35"/>
+        <v>3.6111111111111094E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="35"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="35"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" ref="D124:D127" si="36">C124-B124</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="36"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="36"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="36"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>90</v>
+      </c>
+      <c r="K127" s="2">
+        <f>SUM(D112:D134)</f>
+        <v>0.58124999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAE104-1612-F049-9CB0-10995E15A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA5C7E-5888-B944-82CF-64A1DE47B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -361,6 +361,45 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>lesson on sandwitch design</t>
+  </si>
+  <si>
+    <t>worked on brochure, watched presentation, compiled biweekly</t>
+  </si>
+  <si>
+    <t>checked paper</t>
+  </si>
+  <si>
+    <t>emailed classmates asking for papers</t>
+  </si>
+  <si>
+    <t>Nurashau's presentation</t>
+  </si>
+  <si>
+    <t>shanita's presentation</t>
+  </si>
+  <si>
+    <t>Alyssa's presentation</t>
+  </si>
+  <si>
+    <t>Arianna's presentation</t>
+  </si>
+  <si>
+    <t>helped Marcus with Tri county board</t>
+  </si>
+  <si>
+    <t>set up senior paper stuff</t>
+  </si>
+  <si>
+    <t>Worked on portfolio, brochure, abstract</t>
+  </si>
+  <si>
+    <t>Wesef award form, worked on paper collection</t>
+  </si>
+  <si>
+    <t>talked to dad about being westlake judge</t>
   </si>
 </sst>
 </file>
@@ -733,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="108" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44627</v>
       </c>
@@ -3059,7 +3098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44628</v>
       </c>
@@ -3077,7 +3116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44629</v>
       </c>
@@ -3095,7 +3134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44629</v>
       </c>
@@ -3113,7 +3152,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44630</v>
       </c>
@@ -3131,7 +3170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44631</v>
       </c>
@@ -3149,7 +3188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44634</v>
       </c>
@@ -3167,7 +3206,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44635</v>
       </c>
@@ -3185,7 +3224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44636</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44637</v>
       </c>
@@ -3221,7 +3260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44637</v>
       </c>
@@ -3239,7 +3278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44638</v>
       </c>
@@ -3257,7 +3296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44639</v>
       </c>
@@ -3275,7 +3314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44641</v>
       </c>
@@ -3292,11 +3331,8 @@
       <c r="E142" t="s">
         <v>98</v>
       </c>
-      <c r="K142" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44641</v>
       </c>
@@ -3313,9 +3349,284 @@
       <c r="E143" t="s">
         <v>99</v>
       </c>
-      <c r="K143" s="2">
-        <f>SUM(D128:D144)</f>
-        <v>0.70486111111111105</v>
+    </row>
+    <row r="144" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>44643</v>
+      </c>
+      <c r="B144" s="6">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D144" s="7">
+        <f t="shared" ref="D144" si="42">C144-B144</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" ref="D145:D148" si="43">C145-B145</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="43"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="D147" s="2">
+        <f t="shared" si="43"/>
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D148" s="2">
+        <f>C148-B148</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D149" s="2">
+        <f t="shared" ref="D149:D155" si="44">C149-B149</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" si="44"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B151" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="44"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B152" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="44"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B153" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="44"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="44"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B155" s="4">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0.82916666666666661</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="44"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B156" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" ref="D156:D157" si="45">C156-B156</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D157" s="2">
+        <f>C157-B157</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D158" s="2">
+        <f>C158-B158</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E158" t="s">
+        <v>110</v>
+      </c>
+      <c r="J158" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J159" s="2">
+        <f>SUM(D145:D160)</f>
+        <v>0.58749999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoldman/science-research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA5C7E-5888-B944-82CF-64A1DE47B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A4510-3B5F-FF44-BED2-7B08CFE4B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EBC8E4BC-03EE-E74B-A2A7-FD254B5A916A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,48 @@
   </si>
   <si>
     <t>talked to dad about being westlake judge</t>
+  </si>
+  <si>
+    <t>Figured out westlake replacement judge</t>
+  </si>
+  <si>
+    <t>Helped sean and marcus with brochures</t>
+  </si>
+  <si>
+    <t>Wrote letter of advice</t>
+  </si>
+  <si>
+    <t>Sent abstract to alex</t>
+  </si>
+  <si>
+    <t>Organized senior papers</t>
+  </si>
+  <si>
+    <t>Emailed about westlake replacement judge</t>
+  </si>
+  <si>
+    <t>Edited paper</t>
+  </si>
+  <si>
+    <t>Watched presentation</t>
+  </si>
+  <si>
+    <t>Compiled and submitted biweekly, read sophomore research plan</t>
+  </si>
+  <si>
+    <t>Fixed computer thing for project</t>
+  </si>
+  <si>
+    <t>Worked on sophomore letter of advice, brochure</t>
+  </si>
+  <si>
+    <t>Figured out symposium details</t>
+  </si>
+  <si>
+    <t>Organized final portfolio</t>
+  </si>
+  <si>
+    <t>Cleaned up hours</t>
   </si>
 </sst>
 </file>
@@ -772,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E183CDD-614A-4043-B604-DC6D735E5831}">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3368,7 +3410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44644</v>
       </c>
@@ -3379,14 +3421,14 @@
         <v>0.41458333333333303</v>
       </c>
       <c r="D145" s="2">
-        <f t="shared" ref="D145:D148" si="43">C145-B145</f>
+        <f t="shared" ref="D145:D147" si="43">C145-B145</f>
         <v>3.125E-2</v>
       </c>
       <c r="E145" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44645</v>
       </c>
@@ -3404,7 +3446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44645</v>
       </c>
@@ -3422,7 +3464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44648</v>
       </c>
@@ -3440,7 +3482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44649</v>
       </c>
@@ -3458,7 +3500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44650</v>
       </c>
@@ -3476,7 +3518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44651</v>
       </c>
@@ -3494,7 +3536,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44652</v>
       </c>
@@ -3512,7 +3554,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44654</v>
       </c>
@@ -3530,7 +3572,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44655</v>
       </c>
@@ -3548,7 +3590,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44655</v>
       </c>
@@ -3566,7 +3608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44656</v>
       </c>
@@ -3577,14 +3619,14 @@
         <v>0.41458333333333303</v>
       </c>
       <c r="D156" s="2">
-        <f t="shared" ref="D156:D157" si="45">C156-B156</f>
+        <f t="shared" ref="D156" si="45">C156-B156</f>
         <v>3.125E-2</v>
       </c>
       <c r="E156" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44657</v>
       </c>
@@ -3595,14 +3637,14 @@
         <v>0.41458333333333303</v>
       </c>
       <c r="D157" s="2">
-        <f>C157-B157</f>
+        <f t="shared" ref="D157:D162" si="46">C157-B157</f>
         <v>3.125E-2</v>
       </c>
       <c r="E157" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44657</v>
       </c>
@@ -3613,20 +3655,399 @@
         <v>0.8125</v>
       </c>
       <c r="D158" s="2">
-        <f>C158-B158</f>
+        <f t="shared" si="46"/>
         <v>0.10416666666666663</v>
       </c>
       <c r="E158" t="s">
         <v>110</v>
       </c>
-      <c r="J158" t="s">
+    </row>
+    <row r="159" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>44659</v>
+      </c>
+      <c r="B159" s="7">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C159" s="7">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D159" s="7">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L159" s="7"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="46"/>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>124</v>
+      </c>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="D161" s="2">
+        <f t="shared" si="46"/>
+        <v>5.3472222222222254E-2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>98</v>
+      </c>
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D162" s="2">
+        <f t="shared" si="46"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" ref="D163:D167" si="47">C163-B163</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="47"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="47"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="D166" s="2">
+        <f t="shared" si="47"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="47"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D168" s="2">
+        <f>C168-B168</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" ref="D169:D172" si="48">C169-B169</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="48"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D171" s="2">
+        <f t="shared" si="48"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D172" s="2">
+        <f t="shared" si="48"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D173" s="2">
+        <f t="shared" ref="D173" si="49">C173-B173</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D174" s="2">
+        <f t="shared" ref="D174:D179" si="50">C174-B174</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D175" s="2">
+        <f t="shared" si="50"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="50"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="50"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="50"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>60</v>
+      </c>
+      <c r="J178" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J159" s="2">
-        <f>SUM(D145:D160)</f>
-        <v>0.58749999999999991</v>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="50"/>
+        <v>3.9583333333333304E-2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>130</v>
+      </c>
+      <c r="J179" s="2">
+        <f>SUM(D159:D179)</f>
+        <v>0.74861111111111112</v>
       </c>
     </row>
   </sheetData>
